--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -1538,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>int</t>
   </si>
@@ -33,6 +33,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>foreshow</t>
+  </si>
+  <si>
     <t>bornAreaId</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>场景名称（多语言表key）</t>
+  </si>
+  <si>
+    <t>传送预告内容</t>
   </si>
   <si>
     <t xml:space="preserve">出生点区域 ID</t>
@@ -118,7 +124,7 @@
     <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="163" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -255,11 +261,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -701,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -716,16 +717,28 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -827,13 +840,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="double">
           <color theme="4"/>
         </top>
-        <bottom/>
-        <diagonal/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -853,7 +866,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </horizontal>
@@ -880,13 +893,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -895,15 +908,15 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -918,13 +931,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -938,13 +951,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -955,13 +968,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -987,15 +1000,15 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -1534,15 +1547,15 @@
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="30.75390625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="51.858333333333299"/>
-    <col customWidth="1" min="3" max="3" style="2" width="25.066666666666698"/>
-    <col customWidth="1" min="4" max="4" style="1" width="17.141666666666701"/>
-    <col customWidth="1" min="5" max="5" style="1" width="18.375"/>
-    <col customWidth="1" min="6" max="6" style="1" width="16.658333333333299"/>
-    <col customWidth="1" min="11" max="11" style="1" width="13.1916666666667"/>
-    <col customWidth="1" min="12" max="12" style="1" width="14.1833333333333"/>
-    <col customWidth="1" min="14" max="14" style="1" width="34.308333333333302"/>
-    <col customWidth="1" min="15" max="15" style="1" width="24.091666666666701"/>
+    <col customWidth="1" min="2" max="3" style="1" width="51.858333333333299"/>
+    <col customWidth="1" min="4" max="4" style="2" width="25.066666666666698"/>
+    <col customWidth="1" min="5" max="5" style="1" width="17.141666666666701"/>
+    <col customWidth="1" min="6" max="6" style="1" width="18.375"/>
+    <col customWidth="1" min="7" max="7" style="1" width="16.658333333333299"/>
+    <col customWidth="1" min="12" max="12" style="1" width="13.1916666666667"/>
+    <col customWidth="1" min="13" max="13" style="1" width="14.1833333333333"/>
+    <col customWidth="1" min="15" max="15" style="1" width="34.308333333333302"/>
+    <col customWidth="1" min="16" max="16" style="1" width="24.091666666666701"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -1553,15 +1566,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1575,59 +1591,68 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" s="2" customFormat="1">
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="E6" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1635,21 +1660,23 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1657,21 +1684,23 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="E10" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1679,10 +1708,11 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="E11" s="11">
         <v>7</v>
       </c>
     </row>
@@ -1691,88 +1721,89 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" s="2" customFormat="1"/>
     <row r="14" s="2" customFormat="1">
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" s="2" customFormat="1">
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" s="2" customFormat="1">
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" s="2" customFormat="1">
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" s="2" customFormat="1">
-      <c r="C18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" s="2" customFormat="1">
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" s="2" customFormat="1">
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" s="2" customFormat="1">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" s="2" customFormat="1"/>
     <row r="23" s="2" customFormat="1"/>
@@ -1780,10 +1811,10 @@
     <row r="25" s="2" customFormat="1"/>
     <row r="26" s="2" customFormat="1"/>
     <row r="27" s="2" customFormat="1">
-      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" s="2" customFormat="1">
-      <c r="C28" s="8"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" s="2" customFormat="1"/>
     <row r="30" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -13,15 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>int[]</t>
@@ -702,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -717,26 +714,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1565,94 +1550,94 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="T2" s="4"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" s="2" customFormat="1">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" s="2" customFormat="1">
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="E6" s="11">
+      <c r="C6" s="9"/>
+      <c r="E6" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1660,23 +1645,23 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="E8" s="11">
+      <c r="C8" s="9"/>
+      <c r="E8" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1684,23 +1669,23 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="E10" s="11">
+      <c r="C10" s="9"/>
+      <c r="E10" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1708,11 +1693,11 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="E11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1721,89 +1706,89 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1"/>
     <row r="14" s="2" customFormat="1">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1">
+      <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" s="2" customFormat="1">
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" s="2" customFormat="1">
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" s="2" customFormat="1">
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1">
+      <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" s="2" customFormat="1">
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" s="2" customFormat="1">
-      <c r="D19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1">
       <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1"/>
     <row r="23" s="2" customFormat="1"/>
@@ -1811,10 +1796,10 @@
     <row r="25" s="2" customFormat="1"/>
     <row r="26" s="2" customFormat="1"/>
     <row r="27" s="2" customFormat="1">
-      <c r="D27" s="11"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" s="2" customFormat="1">
-      <c r="D28" s="11"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" s="2" customFormat="1"/>
     <row r="30" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">foreshow</t>
+  </si>
+  <si>
     <t xml:space="preserve">bornAreaId</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">场景名称（多语言表key）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奶牛关传送播报（多语言表key）</t>
   </si>
   <si>
     <t xml:space="preserve">出生点区域 ID</t>
@@ -230,27 +236,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="34.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="34.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -258,18 +265,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -282,8 +291,9 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -293,16 +303,18 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -314,26 +326,29 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -341,28 +356,29 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -371,18 +387,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="E6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -391,18 +408,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="G7" s="7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -411,18 +429,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="E8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="F8" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="G8" s="7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -431,18 +450,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="E9" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="F9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="G9" s="7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -451,18 +471,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="G10" s="7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -471,118 +492,119 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="E11" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0"/>
       <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="0"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="0"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="0"/>
       <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="0"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="0"/>
       <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="0"/>
       <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="0"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="0"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="0"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -598,11 +620,12 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -618,11 +641,12 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -638,11 +662,12 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -658,11 +683,12 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -678,11 +704,12 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -698,11 +725,12 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -718,11 +746,12 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -738,11 +767,12 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -758,11 +788,12 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -778,11 +809,12 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -798,11 +830,12 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -818,11 +851,12 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -838,11 +872,12 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -858,6 +893,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -7,8 +7,15 @@
     <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Constant" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="MaxCount">Constant!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -42,6 +71,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>name_str</t>
   </si>
   <si>
     <t>foreshow</t>
@@ -60,6 +92,9 @@
   </si>
   <si>
     <t>场景名称（多语言表key）（1是主场景）</t>
+  </si>
+  <si>
+    <t>VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t>奶牛关传送播报（多语言表key）</t>
@@ -92,6 +127,9 @@
     <t>Main_Scene_Name3</t>
   </si>
   <si>
+    <t>18|19</t>
+  </si>
+  <si>
     <t>Main_Scene_Name4</t>
   </si>
   <si>
@@ -101,7 +139,7 @@
     <t>Main_Scene_Name6</t>
   </si>
   <si>
-    <t>18|19</t>
+    <t>MaxLanItemCount</t>
   </si>
 </sst>
 </file>
@@ -114,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,6 +161,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -586,21 +631,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,119 +651,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -735,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1020,6 +1068,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1278,28 +1350,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.8583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.0666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.0666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1416666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.3666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6583333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.1916666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.1833333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34.3083333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.0916666666667" style="2" customWidth="1"/>
+    <col min="2" max="3" width="51.8583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.0666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.0666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.3666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.6583333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.1916666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.1833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="34.3083333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.0916666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1310,18 +1382,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1334,8 +1408,9 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,16 +1423,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1369,29 +1446,32 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+      <c r="T2" s="4"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:21">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1399,244 +1479,370 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="str" cm="1">
+        <f ca="1" t="array" ref="C5">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>主场景</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="7">
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6">
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>涌动之水</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>火炎地狱</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7">
         <v>23</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="7">
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>天空树</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7">
         <v>24</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="7">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>荒野边疆</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7">
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="8">
         <v>16</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="7">
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6">
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>赐福天光</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v>永眠之暗</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="8">
         <v>7</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="1">
         <v>28</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1" spans="4:9">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:9">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:9">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:9">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:9">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="4:9">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="5:9">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="4:9">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1" spans="4:4">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="4:4">
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" spans="1:20">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:10">
+      <c r="C14" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:10">
+      <c r="C15" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:10">
+      <c r="C16" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:10">
+      <c r="C17" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:10">
+      <c r="C18" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:10">
+      <c r="C19" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:10">
+      <c r="C20" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:10">
+      <c r="C21" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:3">
+      <c r="C22" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:3">
+      <c r="C23" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:3">
+      <c r="C24" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:3">
+      <c r="C25" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:3">
+      <c r="C26" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:5">
+      <c r="C27" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:5">
+      <c r="C28" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:3">
+      <c r="C29" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:3">
+      <c r="C30" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:3">
+      <c r="C31" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="3:3">
+      <c r="C32" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1652,12 +1858,16 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1673,12 +1883,16 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1694,12 +1908,16 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1715,12 +1933,16 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1736,12 +1958,16 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1757,12 +1983,16 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1778,12 +2008,16 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1799,12 +2033,16 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1820,12 +2058,16 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1841,12 +2083,16 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1862,12 +2108,16 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1883,12 +2133,16 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1904,12 +2158,16 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1925,6 +2183,2731 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B48,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B49,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B50,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B51,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B52,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B53,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B54,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B55,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B56,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B57,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B58,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B59,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B60,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B61,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B62,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B63,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B64,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B65,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B66,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B67,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B68,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B69,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B70,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B71,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B72,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B73,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B74,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B75,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B76,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B77,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B78,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B79,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B80,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B81,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B82,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B83,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B84,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B85,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B86,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B87,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B88,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B89,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B90,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B91,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B92,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B93,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B94,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B95,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B96,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B97,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B98,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B99,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B100,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B101,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B102,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B103,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B104,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B105,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B106,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B107,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B108,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B109,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B110,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B111,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B112,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B113,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B114,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B115,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B116,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B117,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B118,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B119,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B120,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B121,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B122,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B123,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B124,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B125,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B126,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B127,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B128,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B129,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B130,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B131,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B132,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B133,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B134,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B135,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B136,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B137,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B138,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B139,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B140,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B141,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B142,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B143,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B144,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B145,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B146,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B147,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B148,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B149,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B150,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B151,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B152,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B153,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B154,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B155,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B156,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B157,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B158,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B159,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B160,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B161,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B162,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B163,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B164,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B165,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B166,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B167,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B168,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B169,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B170,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B171,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B172,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B173,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B174,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B175,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B176,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B177,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B178,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B179,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B180,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B181,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B182,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B183,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B184,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B185,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B186,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B187,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B188,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B189,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B190,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B191,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B192,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B193,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B194,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B195,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B196,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B197,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B198,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B199,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B200,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B201,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B202,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B203,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B204,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B205,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B206,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B207,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B208,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B209,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B210,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B211,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B212,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B213,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B214,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B215,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B216,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B217,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B218,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B219,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B220,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B221,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B222,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B223,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B224,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B225,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B226,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B227,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B228,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B229,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B230,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B231,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B232,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B233,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B234,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B235,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B236,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B237,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B238,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B239,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B240,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B241,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B242,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B243,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B244,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B245,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B246,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B247,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B248,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B249,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B250,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B251,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B252,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B253,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B254,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B255,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B256,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B257,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B258,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B259,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B260,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B261,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B262,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B263,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B264,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B265,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B266,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B267,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B268,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B269,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B270,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B271,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B272,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B273,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B274,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B275,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B276,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B277,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B278,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B279,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B280,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B281,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B282,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B283,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B284,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B285,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B286,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B287,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B288,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B289,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B290,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B291,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B292,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B293,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B294,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B295,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B296,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B297,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B298,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B299,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B300,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B301,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B302,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B303,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B304,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B305,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B306,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B307,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B308,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B309,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B310,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B311,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B312,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B313,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B314,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B315,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B316,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B317,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B318,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B319,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B320,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B321,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B322,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B323,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B324,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B325,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B326,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B327,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B328,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B329,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B330,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B331,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B332,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B333,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B334,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B335,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B336,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B337,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B338,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B339,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B340,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B341,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B342,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B343,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B344,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B345,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B346,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B347,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B348,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B349,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B350,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B351,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B352,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B353,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B354,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B355,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B356,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B357,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B358,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B359,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B360,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B361,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B362,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B363,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B364,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B365,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B366,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B367,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B368,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B369,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B370,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B371,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B372,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B373,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B374,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B375,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B376,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B377,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B378,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B379,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B380,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B381,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B382,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B383,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B384,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B385,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B386,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B387,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B388,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B389,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B390,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B391,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B392,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B393,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B394,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B395,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B396,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B397,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B398,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B399,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B400,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B401,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B402,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B403,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B404,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B405,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B406,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B407,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B408,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B409,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B410,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B411,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B412,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B413,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B414,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B415,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B416,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B417,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B418,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B419,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B420,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B421,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B422,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B423,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B424,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B425,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B426,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B427,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B428,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B429,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B430,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B431,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B432,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B433,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B434,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B435,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B436,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B437,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B438,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B439,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B440,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B441,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B442,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B443,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B444,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B445,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B446,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B447,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B448,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B449,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B450,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B451,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B452,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B453,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B454,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B455,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B456,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B457,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B458,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B459,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B460,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B461,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B462,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B463,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B464,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B465,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B466,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B467,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B468,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B469,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B470,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B471,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B472,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B473,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B474,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B475,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B476,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B477,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B478,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B479,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B480,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B481,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B482,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B483,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B484,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B485,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B486,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B487,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B488,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B489,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B490,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B491,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B492,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B493,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B494,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B495,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B496,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B497,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B498,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B499,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" s="2" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B500,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1934,4 +4917,29 @@
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="24045" windowHeight="11925" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C5" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>主场景</v>
+        <v/>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C6" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>涌动之水</v>
+        <v/>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C7" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>火炎地狱</v>
+        <v/>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C8" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>天空树</v>
+        <v/>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>荒野边疆</v>
+        <v/>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C10" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>赐福天光</v>
+        <v/>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C11" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>永眠之暗</v>
+        <v/>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7">

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11925" tabRatio="500"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C5" s="1" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>主场景</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C6" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>涌动之水</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7">
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>7</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C7" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>火炎地狱</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8">
         <v>7</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C8" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>天空树</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>荒野边疆</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C10" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>赐福天光</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7">
@@ -1632,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="8">
         <v>7</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C11" s="9" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>永眠之暗</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7">

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Main_Scene_Name19</t>
   </si>
   <si>
-    <t xml:space="preserve">Main_Scene_Name20</t>
-  </si>
-  <si>
     <t xml:space="preserve">MaxLanItemCount</t>
   </si>
 </sst>
@@ -245,12 +242,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,12 +267,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -502,7 +495,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -666,14 +659,14 @@
       <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="n">
         <v>22</v>
       </c>
@@ -691,14 +684,14 @@
       <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="n">
         <v>23</v>
       </c>
@@ -716,21 +709,21 @@
       <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2" t="n">
@@ -741,14 +734,14 @@
       <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="n">
         <v>25</v>
       </c>
@@ -766,14 +759,14 @@
       <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="n">
         <v>26</v>
       </c>
@@ -791,14 +784,14 @@
       <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="n">
         <v>27</v>
       </c>
@@ -816,7 +809,7 @@
       <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -829,7 +822,7 @@
       <c r="A13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="str">
@@ -847,7 +840,7 @@
       <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="str">
@@ -865,7 +858,7 @@
       <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -883,7 +876,7 @@
       <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="str">
@@ -901,7 +894,7 @@
       <c r="A17" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="str">
@@ -919,7 +912,7 @@
       <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2" t="str">
@@ -937,7 +930,7 @@
       <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2" t="str">
@@ -955,7 +948,7 @@
       <c r="A20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2" t="str">
@@ -973,7 +966,7 @@
       <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2" t="str">
@@ -991,7 +984,7 @@
       <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2" t="str">
@@ -1009,7 +1002,7 @@
       <c r="A23" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2" t="str">
@@ -1027,7 +1020,7 @@
       <c r="A24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="str">
@@ -1045,7 +1038,7 @@
       <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2" t="str">
@@ -1060,18 +1053,7 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="str">
@@ -4208,10 +4190,10 @@
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="0" t="n">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>500</v>
       </c>
     </row>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -125,9 +125,6 @@
     <t xml:space="preserve">Main_Scene_Name11</t>
   </si>
   <si>
-    <t xml:space="preserve">Main_Scene_Name12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main_Scene_Name13</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name20</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -495,7 +495,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,6 +835,12 @@
       <c r="F13" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="G13" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -853,6 +859,12 @@
       <c r="F14" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="G14" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -871,6 +883,12 @@
       <c r="F15" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="G15" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -889,6 +907,12 @@
       <c r="F16" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="G16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -907,6 +931,12 @@
       <c r="F17" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="G17" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -925,6 +955,12 @@
       <c r="F18" s="2" t="n">
         <v>13</v>
       </c>
+      <c r="G18" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -943,6 +979,12 @@
       <c r="F19" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="G19" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -961,6 +1003,12 @@
       <c r="F20" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="G20" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -979,6 +1027,12 @@
       <c r="F21" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="G21" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -997,6 +1051,12 @@
       <c r="F22" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="G22" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -1015,6 +1075,12 @@
       <c r="F23" s="2" t="n">
         <v>18</v>
       </c>
+      <c r="G23" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1033,6 +1099,12 @@
       <c r="F24" s="2" t="n">
         <v>19</v>
       </c>
+      <c r="G24" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -1050,6 +1122,12 @@
       </c>
       <c r="F25" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiptext007</t>
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name</t>
@@ -495,7 +498,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,17 +635,23 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="str">
         <f aca="true" t="array" ref="C5:C5">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="2" t="n">
@@ -660,13 +669,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="7" t="n">
         <v>22</v>
       </c>
@@ -685,13 +696,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="7" t="n">
         <v>23</v>
       </c>
@@ -710,13 +723,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="7" t="n">
         <v>24</v>
       </c>
@@ -724,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>7</v>
@@ -735,13 +750,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="7" t="n">
         <v>25</v>
       </c>
@@ -760,13 +777,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="7" t="n">
         <v>26</v>
       </c>
@@ -785,13 +804,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="7" t="n">
         <v>27</v>
       </c>
@@ -814,6 +835,9 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="2" t="n">
         <v>28</v>
       </c>
@@ -823,11 +847,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>42</v>
@@ -847,11 +874,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>43</v>
@@ -871,11 +901,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44</v>
@@ -895,11 +928,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>45</v>
@@ -919,11 +955,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>46</v>
@@ -943,11 +982,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>47</v>
@@ -967,11 +1009,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>48</v>
@@ -991,11 +1036,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>49</v>
@@ -1015,11 +1063,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>50</v>
@@ -1039,11 +1090,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>51</v>
@@ -1063,11 +1117,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>52</v>
@@ -1087,11 +1144,14 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>53</v>
@@ -1111,11 +1171,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>54</v>
@@ -4269,7 +4332,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>500</v>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">Main_Scene_Name3</t>
   </si>
   <si>
-    <t xml:space="preserve">18|19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main_Scene_Name4</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name21</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -203,12 +203,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,8 +284,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -291,6 +305,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -498,7 +572,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,84 +738,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="9" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="9" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="9" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -750,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -772,30 +846,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -804,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -847,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -869,30 +943,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -901,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -928,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -955,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -982,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1009,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1036,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1058,30 +1132,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="str">
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1090,7 +1164,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1117,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1144,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1171,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1194,7 +1268,27 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7"/>
+      <c r="A26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="str">

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name29</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -571,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1291,52 +1315,193 @@
       </c>
     </row>
     <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C30" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="C31" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1352,16 +1517,31 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -4418,7 +4598,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4426,7 +4606,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>500</v>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name32</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -596,7 +605,7 @@
   <dimension ref="A1:U500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,16 +1566,31 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1582,16 +1606,31 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C36" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1607,16 +1646,31 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="C37" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4606,7 +4660,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>500</v>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t xml:space="preserve">Main_Scene_Name32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_Scene_Name34</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -604,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1686,16 +1692,31 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C38" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1711,16 +1732,31 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C39" s="2" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -4660,7 +4696,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>500</v>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +855,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1006,7 @@
         <v>56</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1195,7 @@
         <v>63</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1353,7 @@
         <v>69</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1380,7 @@
         <v>70</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1407,7 @@
         <v>71</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1434,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1461,7 @@
         <v>73</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1515,7 @@
         <v>75</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1555,7 +1555,7 @@
         <v>76</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1595,7 +1595,7 @@
         <v>77</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1635,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1675,7 +1675,7 @@
         <v>79</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1715,7 +1715,7 @@
         <v>80</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1755,7 +1755,7 @@
         <v>81</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>

--- a/dragon-verse/Excels/Scene_场景表.xlsx
+++ b/dragon-verse/Excels/Scene_场景表.xlsx
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1317,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>21</v>
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>22</v>
@@ -1371,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>23</v>
@@ -1398,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>24</v>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>25</v>
@@ -1452,7 +1452,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>26</v>
@@ -1479,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>27</v>
@@ -1506,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>28</v>
@@ -1546,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>29</v>
@@ -1586,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>31</v>
@@ -1666,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>32</v>
@@ -1706,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>33</v>
@@ -1746,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>34</v>
